--- a/analysis/plantilla_vacia.xlsx
+++ b/analysis/plantilla_vacia.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Nextcloud\Programacion\GitHub\contabilidad\sample-data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Nextcloud\Programacion\GitHub\contabilidad\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE1A77D-DADE-4F5C-A048-298541D5401F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6FC6C6F-2EB9-4A5D-9444-A4A42CD206F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="simple" sheetId="3" r:id="rId1"/>
     <sheet name="compleja" sheetId="2" r:id="rId2"/>
-    <sheet name="Cuentas" sheetId="4" r:id="rId3"/>
+    <sheet name="cuentas" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <pivotCaches>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="108">
   <si>
     <t>Fecha</t>
   </si>
@@ -376,6 +376,12 @@
   </si>
   <si>
     <t>comida</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>balance</t>
   </si>
 </sst>
 </file>
@@ -1677,11 +1683,12 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{447D7112-259D-4C0C-AF28-055C99274BD5}" name="Cuentas" displayName="Cuentas" ref="F4:G47" totalsRowShown="0">
-  <autoFilter ref="F4:G47" xr:uid="{6F18564F-6990-4186-B512-9E1C6E9F5F3A}"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{447D7112-259D-4C0C-AF28-055C99274BD5}" name="Cuentas" displayName="Cuentas" ref="A1:C44" totalsRowShown="0">
+  <autoFilter ref="A1:C44" xr:uid="{6F18564F-6990-4186-B512-9E1C6E9F5F3A}"/>
+  <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{9DE84074-E3ED-46A0-8037-CE36B265F541}" name="Cuenta" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{C60FC6EA-5DD3-4D2E-A6C5-929976B15FC4}" name="Descripción"/>
+    <tableColumn id="3" xr3:uid="{95785F9C-D331-4DDA-99D6-0C3C3DD8CA16}" name="Tipo"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1984,10 +1991,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8C68A8C-4B2B-40F9-A6AA-47048CD7600B}">
-  <dimension ref="B3:K7"/>
+  <dimension ref="B3:L7"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2003,7 +2010,7 @@
     <col min="11" max="11" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -2032,7 +2039,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="5"/>
       <c r="D4" s="2"/>
@@ -2041,7 +2048,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="J5" s="8" t="s">
         <v>5</v>
       </c>
@@ -2049,21 +2056,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="J6" t="str" cm="1">
-        <f t="array" ref="J6:K7">_xlfn._xlws.FILTER(Cuentas[],(ISNUMBER(SEARCH(K3,Cuentas[Descripción]))))</f>
+        <f t="array" ref="J6:L7">_xlfn._xlws.FILTER(Cuentas[],(ISNUMBER(SEARCH(K3,Cuentas[Descripción]))))</f>
         <v>300</v>
       </c>
       <c r="K6" t="str">
         <v>Comida</v>
       </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L6" t="str">
+        <v>balance</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="J7" t="str">
         <v>312</v>
       </c>
       <c r="K7" t="str">
         <v>Comidas, cenas…</v>
+      </c>
+      <c r="L7" t="str">
+        <v>balance</v>
       </c>
     </row>
   </sheetData>
@@ -2077,9 +2090,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C5C23EA-5D97-488D-B298-E89BE659774C}">
-  <dimension ref="B3:P7"/>
+  <dimension ref="B3:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -2097,7 +2110,7 @@
     <col min="16" max="16" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>6</v>
       </c>
@@ -2138,7 +2151,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
       <c r="D4" s="5"/>
       <c r="E4" s="10"/>
@@ -2154,7 +2167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
       <c r="J5" s="4" t="s">
         <v>82</v>
       </c>
@@ -2170,21 +2183,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="O6" t="str" cm="1">
-        <f t="array" ref="O6:P7">_xlfn._xlws.FILTER(Cuentas[],(ISNUMBER(SEARCH(P3,Cuentas[Descripción]))))</f>
+        <f t="array" ref="O6:Q7">_xlfn._xlws.FILTER(Cuentas[],(ISNUMBER(SEARCH(P3,Cuentas[Descripción]))))</f>
         <v>100</v>
       </c>
       <c r="P6" t="str">
         <v>Caja</v>
       </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="Q6" t="str">
+        <v>balance</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="O7" t="str">
         <v>60</v>
       </c>
       <c r="P7" t="str">
         <v>Ajustes</v>
+      </c>
+      <c r="Q7" t="str">
+        <v>balance</v>
       </c>
     </row>
   </sheetData>
@@ -2203,399 +2222,541 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77992459-7EBD-4FF8-A263-AD3B398FEA90}">
-  <dimension ref="B2:G47"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="24.6640625" customWidth="1"/>
-    <col min="7" max="7" width="39.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" t="str" cm="1">
-        <f t="array" ref="B5:C7">_xlfn._xlws.FILTER(Cuentas[],(ISNUMBER(SEARCH(C2,Cuentas[Descripción]))))</f>
+      <c r="G3" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" t="str" cm="1">
+        <f t="array" ref="E4:G6">_xlfn._xlws.FILTER(Cuentas[],(ISNUMBER(SEARCH(F1,Cuentas[Descripción]))))</f>
         <v>1200</v>
       </c>
-      <c r="C5" t="str">
+      <c r="F4" t="str">
         <v>Tarjeta Visa</v>
       </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" t="str">
+      <c r="G4" t="str">
+        <v>balance</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" t="str">
         <v>1201</v>
       </c>
-      <c r="C6" t="str">
+      <c r="F5" t="str">
         <v>Tarjeta Amex</v>
       </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" t="str">
+      <c r="G5" t="str">
+        <v>balance</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" t="str">
         <v>1210</v>
       </c>
-      <c r="C7" t="str">
+      <c r="F6" t="str">
         <v>Tarjeta prepago</v>
       </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="F8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="F10" t="s">
+      <c r="G6" t="str">
+        <v>balance</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="G10" t="s">
+      <c r="B7" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="F11" t="s">
+      <c r="C7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>18</v>
       </c>
-      <c r="G11" t="s">
+      <c r="B8" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="F12" t="s">
+      <c r="C8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>19</v>
       </c>
-      <c r="G12" t="s">
+      <c r="B9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="F13" t="s">
+      <c r="C9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="G13" t="s">
+      <c r="B10" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="F14" t="s">
+      <c r="C10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="G14" t="s">
+      <c r="B11" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="F15" t="s">
+      <c r="C11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="G15" t="s">
+      <c r="B12" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="F16" t="s">
+      <c r="C12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>24</v>
       </c>
-      <c r="G16" t="s">
+      <c r="B13" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F17" t="s">
+      <c r="C13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>26</v>
       </c>
-      <c r="G17" t="s">
+      <c r="B14" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F18" t="s">
+      <c r="C14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>28</v>
       </c>
-      <c r="G18" t="s">
+      <c r="B15" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F19" t="s">
+      <c r="C15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>30</v>
       </c>
-      <c r="G19" t="s">
+      <c r="B16" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="20" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F20" t="s">
+      <c r="C16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>31</v>
       </c>
-      <c r="G20" t="s">
+      <c r="B17" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="21" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F21" t="s">
+      <c r="C17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>33</v>
       </c>
-      <c r="G21" t="s">
+      <c r="B18" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="22" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F22" t="s">
+      <c r="C18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>35</v>
       </c>
-      <c r="G22" t="s">
+      <c r="B19" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F23" t="s">
+      <c r="C19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>37</v>
       </c>
-      <c r="G23" t="s">
+      <c r="B20" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="24" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F24" t="s">
+      <c r="C20" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>39</v>
       </c>
-      <c r="G24" t="s">
+      <c r="B21" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="25" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F25" t="s">
+      <c r="C21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>41</v>
       </c>
-      <c r="G25" t="s">
+      <c r="B22" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="26" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F26" t="s">
+      <c r="C22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>43</v>
       </c>
-      <c r="G26" t="s">
+      <c r="B23" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="27" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F27" t="s">
+      <c r="C23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>45</v>
       </c>
-      <c r="G27" t="s">
+      <c r="B24" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="28" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F28" t="s">
+      <c r="C24" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>85</v>
       </c>
-      <c r="G28" t="s">
+      <c r="B25" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="29" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F29" t="s">
+      <c r="C25" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>47</v>
       </c>
-      <c r="G29" t="s">
+      <c r="B26" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="30" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F30" t="s">
+      <c r="C26" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>49</v>
       </c>
-      <c r="G30" t="s">
+      <c r="B27" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="31" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F31" t="s">
+      <c r="C27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>51</v>
       </c>
-      <c r="G31" t="s">
+      <c r="B28" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="32" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F32" t="s">
+      <c r="C28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>53</v>
       </c>
-      <c r="G32" t="s">
+      <c r="B29" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="33" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F33" t="s">
+      <c r="C29" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>10</v>
       </c>
-      <c r="G33" t="s">
+      <c r="B30" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="34" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F34" t="s">
+      <c r="C30" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>56</v>
       </c>
-      <c r="G34" t="s">
+      <c r="B31" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="35" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F35" t="s">
+      <c r="C31" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>58</v>
       </c>
-      <c r="G35" t="s">
+      <c r="B32" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="36" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F36" t="s">
+      <c r="C32" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>60</v>
       </c>
-      <c r="G36" t="s">
+      <c r="B33" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="37" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F37" t="s">
+      <c r="C33" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>90</v>
       </c>
-      <c r="G37" t="s">
+      <c r="B34" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="38" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F38" t="s">
+      <c r="C34" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>62</v>
       </c>
-      <c r="G38" t="s">
+      <c r="B35" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="39" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F39" t="s">
+      <c r="C35" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>64</v>
       </c>
-      <c r="G39" t="s">
+      <c r="B36" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="40" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F40" t="s">
+      <c r="C36" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>89</v>
       </c>
-      <c r="G40" t="s">
+      <c r="B37" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="41" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F41" t="s">
+      <c r="C37" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>66</v>
       </c>
-      <c r="G41" t="s">
+      <c r="B38" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="42" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F42" t="s">
+      <c r="C38" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>86</v>
       </c>
-      <c r="G42" t="s">
+      <c r="B39" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="43" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F43" t="s">
+      <c r="C39" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>87</v>
       </c>
-      <c r="G43" t="s">
+      <c r="B40" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="44" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F44" t="s">
+      <c r="C40" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>69</v>
       </c>
-      <c r="G44" t="s">
+      <c r="B41" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="45" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F45" t="s">
+      <c r="C41" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>70</v>
       </c>
-      <c r="G45" t="s">
+      <c r="B42" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="46" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F46" t="s">
+      <c r="C42" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>72</v>
       </c>
-      <c r="G46" t="s">
+      <c r="B43" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="47" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F47" t="s">
+      <c r="C43" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>74</v>
       </c>
-      <c r="G47" t="s">
+      <c r="B44" t="s">
         <v>75</v>
+      </c>
+      <c r="C44" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
